--- a/example-dataset/results/IDFree_GroupComparison_QCResult/ExampleDataset-IDFree-Group_ID-Free_QC_Report.xlsx
+++ b/example-dataset/results/IDFree_GroupComparison_QCResult/ExampleDataset-IDFree-Group_ID-Free_QC_Report.xlsx
@@ -29,25 +29,25 @@
     <t>MS2/MS1 Spectra</t>
   </si>
   <si>
-    <t>MS1 TIC</t>
-  </si>
-  <si>
-    <t>MS2 TIC</t>
-  </si>
-  <si>
-    <t>Max Basepeak Intensity</t>
+    <t>Log MS1 TIC</t>
+  </si>
+  <si>
+    <t>Log MS2 TIC</t>
+  </si>
+  <si>
+    <t>Log Max Basepeak Intensity</t>
   </si>
   <si>
     <t>MS2/MS1 Spectra Outliers</t>
   </si>
   <si>
-    <t>MS1 TIC Outliers</t>
-  </si>
-  <si>
-    <t>MS2 TIC Outliers</t>
-  </si>
-  <si>
-    <t>Max Basepeak Intensity Outliers</t>
+    <t>Log MS1 TIC Outliers</t>
+  </si>
+  <si>
+    <t>Log MS2 TIC Outliers</t>
+  </si>
+  <si>
+    <t>Log Max Basepeak Intensity Outliers</t>
   </si>
   <si>
     <t>Group</t>
@@ -218,16 +218,16 @@
     <t>Plate8</t>
   </si>
   <si>
-    <t>MS1 TIC CV%</t>
-  </si>
-  <si>
-    <t>MS2 TIC CV%</t>
-  </si>
-  <si>
-    <t>MS1 TIC CV% Threshold = 40</t>
-  </si>
-  <si>
-    <t>MS2 TIC CV% Threshold = 40</t>
+    <t>Log MS1 TIC CV%</t>
+  </si>
+  <si>
+    <t>Log MS2 TIC CV%</t>
+  </si>
+  <si>
+    <t>MS1 TIC CV% Threshold = 30</t>
+  </si>
+  <si>
+    <t>MS2 TIC CV% Threshold = 30</t>
   </si>
   <si>
     <t>PASS</t>
@@ -646,13 +646,13 @@
         <v>49.97163120567376</v>
       </c>
       <c r="E2">
-        <v>3439704203667</v>
+        <v>41.64542164478181</v>
       </c>
       <c r="F2">
-        <v>2089331831227.805</v>
+        <v>40.92617878052599</v>
       </c>
       <c r="G2">
-        <v>4365256704</v>
+        <v>32.02341934969625</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -684,13 +684,13 @@
         <v>49.9946777054997</v>
       </c>
       <c r="E3">
-        <v>3303308871733</v>
+        <v>41.5870490119605</v>
       </c>
       <c r="F3">
-        <v>2030435149950.25</v>
+        <v>40.88492608842265</v>
       </c>
       <c r="G3">
-        <v>4396026368</v>
+        <v>32.03355289379223</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -722,22 +722,22 @@
         <v>49.97163120567376</v>
       </c>
       <c r="E4">
-        <v>4364514245635</v>
+        <v>41.98895823479172</v>
       </c>
       <c r="F4">
-        <v>2720233613986.148</v>
+        <v>41.30686769426611</v>
       </c>
       <c r="G4">
-        <v>4214942208</v>
+        <v>31.9728657041801</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>49.97399527186762</v>
       </c>
       <c r="E5">
-        <v>4057445363118.5</v>
+        <v>41.88370880646196</v>
       </c>
       <c r="F5">
-        <v>2511368997930.25</v>
+        <v>41.19161115944123</v>
       </c>
       <c r="G5">
-        <v>4378575360</v>
+        <v>32.02781439609748</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>49.98049645390071</v>
       </c>
       <c r="E6">
-        <v>3726916227781</v>
+        <v>41.76111952972391</v>
       </c>
       <c r="F6">
-        <v>2268900492876.57</v>
+        <v>41.04513047679854</v>
       </c>
       <c r="G6">
-        <v>4293625600</v>
+        <v>31.99954924905517</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>49.98876404494382</v>
       </c>
       <c r="E7">
-        <v>3775578185056.5</v>
+        <v>41.77983473165316</v>
       </c>
       <c r="F7">
-        <v>2340250151206.57</v>
+        <v>41.0897998875239</v>
       </c>
       <c r="G7">
-        <v>4640388608</v>
+        <v>32.11159848247669</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>59</v>
@@ -874,13 +874,13 @@
         <v>49.97338852749852</v>
       </c>
       <c r="E8">
-        <v>2901738976627.5</v>
+        <v>41.40005488752858</v>
       </c>
       <c r="F8">
-        <v>1794555206759.664</v>
+        <v>40.70676344480221</v>
       </c>
       <c r="G8">
-        <v>3713950208</v>
+        <v>31.79030732753827</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>49.99526907155529</v>
       </c>
       <c r="E9">
-        <v>3354981593841.25</v>
+        <v>41.60944199015673</v>
       </c>
       <c r="F9">
-        <v>2084222570448.164</v>
+        <v>40.92264648734744</v>
       </c>
       <c r="G9">
-        <v>3994503680</v>
+        <v>31.89536911236229</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>49.98403311649911</v>
       </c>
       <c r="E10">
-        <v>2920370125137.25</v>
+        <v>41.40928836524017</v>
       </c>
       <c r="F10">
-        <v>1785269358472.922</v>
+        <v>40.69927890075472</v>
       </c>
       <c r="G10">
-        <v>4084293632</v>
+        <v>31.92743944356196</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>49.98935541099941</v>
       </c>
       <c r="E11">
-        <v>3142970727954.75</v>
+        <v>41.51526597431312</v>
       </c>
       <c r="F11">
-        <v>1951316424550.602</v>
+        <v>40.82758488231273</v>
       </c>
       <c r="G11">
-        <v>3412116736</v>
+        <v>31.66801985924954</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>49.99940828402367</v>
       </c>
       <c r="E12">
-        <v>2880229951485</v>
+        <v>41.38932113664357</v>
       </c>
       <c r="F12">
-        <v>1763581323318.258</v>
+        <v>40.68164524236423</v>
       </c>
       <c r="G12">
-        <v>3723792896</v>
+        <v>31.79412569159233</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>49.97161442933176</v>
       </c>
       <c r="E13">
-        <v>2697539635709.25</v>
+        <v>41.29478129644174</v>
       </c>
       <c r="F13">
-        <v>1674477738501.18</v>
+        <v>40.60684833477811</v>
       </c>
       <c r="G13">
-        <v>3974120192</v>
+        <v>31.88798835963378</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>49.98994082840237</v>
       </c>
       <c r="E14">
-        <v>2941941625624.75</v>
+        <v>41.41990575938888</v>
       </c>
       <c r="F14">
-        <v>1911900598290.516</v>
+        <v>40.79814465669442</v>
       </c>
       <c r="G14">
-        <v>3432236032</v>
+        <v>31.67650162316606</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>49.97989355410999</v>
       </c>
       <c r="E15">
-        <v>2798749337408</v>
+        <v>41.34791942017435</v>
       </c>
       <c r="F15">
-        <v>1775199298762.289</v>
+        <v>40.69111814140386</v>
       </c>
       <c r="G15">
-        <v>3367152384</v>
+        <v>31.64888186730104</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>49.99289940828402</v>
       </c>
       <c r="E16">
-        <v>2828665269464.75</v>
+        <v>41.36325860394562</v>
       </c>
       <c r="F16">
-        <v>1825186457281.477</v>
+        <v>40.73118099291747</v>
       </c>
       <c r="G16">
-        <v>3421254400</v>
+        <v>31.67187823899603</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         <v>49.97752808988764</v>
       </c>
       <c r="E17">
-        <v>3361130577672.5</v>
+        <v>41.61208373011938</v>
       </c>
       <c r="F17">
-        <v>2234030996671.734</v>
+        <v>41.02278634167386</v>
       </c>
       <c r="G17">
-        <v>3358152704</v>
+        <v>31.64502068887542</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>49.9793021880544</v>
       </c>
       <c r="E18">
-        <v>2843814825598</v>
+        <v>41.370964665881</v>
       </c>
       <c r="F18">
-        <v>1823073008513.016</v>
+        <v>40.72950947671799</v>
       </c>
       <c r="G18">
-        <v>3387655936</v>
+        <v>31.6576402101697</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         <v>49.99644970414201</v>
       </c>
       <c r="E19">
-        <v>2910373274702.25</v>
+        <v>41.40434133886983</v>
       </c>
       <c r="F19">
-        <v>1889623830417.633</v>
+        <v>40.78123620272158</v>
       </c>
       <c r="G19">
-        <v>3495434752</v>
+        <v>31.70282475895671</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>49.98875739644971</v>
       </c>
       <c r="E20">
-        <v>2314606147445</v>
+        <v>41.07390386454495</v>
       </c>
       <c r="F20">
-        <v>1519648739484.422</v>
+        <v>40.46687502786502</v>
       </c>
       <c r="G20">
-        <v>3442813952</v>
+        <v>31.68094107445865</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>49.98461538461538</v>
       </c>
       <c r="E21">
-        <v>2537436872857</v>
+        <v>41.20650906957709</v>
       </c>
       <c r="F21">
-        <v>1738120959319.109</v>
+        <v>40.66066562433203</v>
       </c>
       <c r="G21">
-        <v>2994959360</v>
+        <v>31.47988928053146</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1406,13 +1406,13 @@
         <v>49.97217288336294</v>
       </c>
       <c r="E22">
-        <v>2400572642327</v>
+        <v>41.12651573185762</v>
       </c>
       <c r="F22">
-        <v>1606948958867.328</v>
+        <v>40.54746124441404</v>
       </c>
       <c r="G22">
-        <v>3286915584</v>
+        <v>31.61408725895683</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1444,13 +1444,13 @@
         <v>49.97394908229722</v>
       </c>
       <c r="E23">
-        <v>2488481348940.25</v>
+        <v>41.17840271276706</v>
       </c>
       <c r="F23">
-        <v>1650924275982.922</v>
+        <v>40.5864110873857</v>
       </c>
       <c r="G23">
-        <v>3083338240</v>
+        <v>31.52184601472693</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>49.97043169722058</v>
       </c>
       <c r="E24">
-        <v>2728034762013</v>
+        <v>41.31099916668501</v>
       </c>
       <c r="F24">
-        <v>1848034768404.242</v>
+        <v>40.74912903811472</v>
       </c>
       <c r="G24">
-        <v>3130717440</v>
+        <v>31.54384615923508</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1520,13 +1520,13 @@
         <v>49.97337278106509</v>
       </c>
       <c r="E25">
-        <v>2303767457579.75</v>
+        <v>41.06713223705705</v>
       </c>
       <c r="F25">
-        <v>1551706281821.523</v>
+        <v>40.49699263827274</v>
       </c>
       <c r="G25">
-        <v>3119418368</v>
+        <v>31.5386299100526</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1558,13 +1558,13 @@
         <v>49.97633136094674</v>
       </c>
       <c r="E26">
-        <v>2525652602829.75</v>
+        <v>41.19979335234161</v>
       </c>
       <c r="F26">
-        <v>1792987694356.125</v>
+        <v>40.70550272537537</v>
       </c>
       <c r="G26">
-        <v>2611460352</v>
+        <v>31.2822096544197</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1596,13 +1596,13 @@
         <v>49.97161442933176</v>
       </c>
       <c r="E27">
-        <v>2721823052860.5</v>
+        <v>41.30771041818003</v>
       </c>
       <c r="F27">
-        <v>1919229446995.031</v>
+        <v>40.80366433702582</v>
       </c>
       <c r="G27">
-        <v>2608115200</v>
+        <v>31.28036044855455</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>49.98165680473373</v>
       </c>
       <c r="E28">
-        <v>2648312490362.75</v>
+        <v>41.26821050312643</v>
       </c>
       <c r="F28">
-        <v>1895522769831.266</v>
+        <v>40.78573292553166</v>
       </c>
       <c r="G28">
-        <v>2688135424</v>
+        <v>31.3239586746222</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>49.97752808988764</v>
       </c>
       <c r="E29">
-        <v>3043959017864.5</v>
+        <v>41.46908607399386</v>
       </c>
       <c r="F29">
-        <v>2205343902962.43</v>
+        <v>41.00414078690809</v>
       </c>
       <c r="G29">
-        <v>2868062464</v>
+        <v>31.41742929905875</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>49.99704142011834</v>
       </c>
       <c r="E30">
-        <v>2230126914609.25</v>
+        <v>41.02026295366715</v>
       </c>
       <c r="F30">
-        <v>1550062113828.008</v>
+        <v>40.49546316673894</v>
       </c>
       <c r="G30">
-        <v>2603061504</v>
+        <v>31.27756225349914</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>49.98698224852071</v>
       </c>
       <c r="E31">
-        <v>2551918563985</v>
+        <v>41.2147194296596</v>
       </c>
       <c r="F31">
-        <v>1805877248559.188</v>
+        <v>40.71583697005318</v>
       </c>
       <c r="G31">
-        <v>2667536128</v>
+        <v>31.31286066442996</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>49.98755186721991</v>
       </c>
       <c r="E32">
-        <v>2701255178488.25</v>
+        <v>41.29676707147942</v>
       </c>
       <c r="F32">
-        <v>1977230554533.336</v>
+        <v>40.84661824466166</v>
       </c>
       <c r="G32">
-        <v>2584206336</v>
+        <v>31.26707412062782</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>49.97332542975696</v>
       </c>
       <c r="E33">
-        <v>2621102766211</v>
+        <v>41.25331105751746</v>
       </c>
       <c r="F33">
-        <v>1885058868296.758</v>
+        <v>40.77774671661108</v>
       </c>
       <c r="G33">
-        <v>2544282880</v>
+        <v>31.24461193611992</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1862,13 +1862,13 @@
         <v>49.98043864848844</v>
       </c>
       <c r="E34">
-        <v>1901465913291</v>
+        <v>40.79024921531508</v>
       </c>
       <c r="F34">
-        <v>1292915803653.781</v>
+        <v>40.23376546669196</v>
       </c>
       <c r="G34">
-        <v>2260869376</v>
+        <v>31.07423049532786</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>49.99822169531713</v>
       </c>
       <c r="E35">
-        <v>2836058200352.75</v>
+        <v>41.36702427788965</v>
       </c>
       <c r="F35">
-        <v>2056098995653.898</v>
+        <v>40.90304686675051</v>
       </c>
       <c r="G35">
-        <v>2705199104</v>
+        <v>31.33308763501892</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>49.97097156398105</v>
       </c>
       <c r="E36">
-        <v>2239820067639.75</v>
+        <v>41.02651997898912</v>
       </c>
       <c r="F36">
-        <v>1587633148193.656</v>
+        <v>40.530014728444</v>
       </c>
       <c r="G36">
-        <v>2557056768</v>
+        <v>31.25183704350715</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>49.97868561278863</v>
       </c>
       <c r="E37">
-        <v>1743843349904.5</v>
+        <v>40.66540758675264</v>
       </c>
       <c r="F37">
-        <v>1189298041297.633</v>
+        <v>40.11324744231069</v>
       </c>
       <c r="G37">
-        <v>2402479616</v>
+        <v>31.16187704439404</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>49.97571090047393</v>
       </c>
       <c r="E38">
-        <v>3396397758526.625</v>
+        <v>41.62714256416195</v>
       </c>
       <c r="F38">
-        <v>2363957611843.039</v>
+        <v>41.10434130541078</v>
       </c>
       <c r="G38">
-        <v>3220444416</v>
+        <v>31.5846126455926</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <v>3636277025651.5</v>
+        <v>41.72559925245685</v>
       </c>
       <c r="F39">
-        <v>2528235401611.969</v>
+        <v>41.2012679363909</v>
       </c>
       <c r="G39">
-        <v>3428102144</v>
+        <v>31.67476295073154</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>49.99289099526067</v>
       </c>
       <c r="E40">
-        <v>3472084602266.375</v>
+        <v>41.65893924017011</v>
       </c>
       <c r="F40">
-        <v>2434761278469.797</v>
+        <v>41.14691746567832</v>
       </c>
       <c r="G40">
-        <v>3460320256</v>
+        <v>31.68825842085451</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>49.9922940130409</v>
       </c>
       <c r="E41">
-        <v>2247583859212.25</v>
+        <v>41.03151208353718</v>
       </c>
       <c r="F41">
-        <v>1518472228517.289</v>
+        <v>40.46575766180847</v>
       </c>
       <c r="G41">
-        <v>2879247872</v>
+        <v>31.42304484862288</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>49.97985781990521</v>
       </c>
       <c r="E42">
-        <v>3622155308116.5</v>
+        <v>41.71998554508161</v>
       </c>
       <c r="F42">
-        <v>2544587134235.695</v>
+        <v>41.21056873298071</v>
       </c>
       <c r="G42">
-        <v>3526405632</v>
+        <v>31.71555128712888</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>49.9994068801898</v>
       </c>
       <c r="E43">
-        <v>2092136882381.875</v>
+        <v>40.92811438462762</v>
       </c>
       <c r="F43">
-        <v>1389082117329.703</v>
+        <v>40.33726902721352</v>
       </c>
       <c r="G43">
-        <v>2609820160</v>
+        <v>31.28130324958781</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>49.97925311203319</v>
       </c>
       <c r="E44">
-        <v>3139303996057.875</v>
+        <v>41.51358187842206</v>
       </c>
       <c r="F44">
-        <v>2151680579584.609</v>
+        <v>40.96860106205741</v>
       </c>
       <c r="G44">
-        <v>3060190464</v>
+        <v>31.5109743019751</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2280,13 +2280,13 @@
         <v>49.97510373443983</v>
       </c>
       <c r="E45">
-        <v>2457769865258.875</v>
+        <v>41.16048697307599</v>
       </c>
       <c r="F45">
-        <v>1672695894794.844</v>
+        <v>40.60531231806477</v>
       </c>
       <c r="G45">
-        <v>3131975680</v>
+        <v>31.54442586403552</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>49.97689573459716</v>
       </c>
       <c r="E46">
-        <v>4309733914135.375</v>
+        <v>41.97073593775213</v>
       </c>
       <c r="F46">
-        <v>3011582731559.414</v>
+        <v>41.45365903056645</v>
       </c>
       <c r="G46">
-        <v>4039468032</v>
+        <v>31.91151816722863</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2356,13 +2356,13 @@
         <v>49.98162418494368</v>
       </c>
       <c r="E47">
-        <v>3424969616539.25</v>
+        <v>41.63922832839667</v>
       </c>
       <c r="F47">
-        <v>2358802699184.516</v>
+        <v>41.10119188880172</v>
       </c>
       <c r="G47">
-        <v>3428748032</v>
+        <v>31.67503474299575</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>49.9845880260818</v>
       </c>
       <c r="E48">
-        <v>3084782880632.5</v>
+        <v>41.48830608894429</v>
       </c>
       <c r="F48">
-        <v>2111390105130.961</v>
+        <v>40.94133029750505</v>
       </c>
       <c r="G48">
-        <v>3147399424</v>
+        <v>31.55151313095684</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>10.35</v>
+        <v>0.35</v>
       </c>
       <c r="C2">
-        <v>11.15</v>
+        <v>0.39</v>
       </c>
       <c r="D2" t="s">
         <v>71</v>
@@ -2470,10 +2470,10 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>7.74</v>
+        <v>0.27</v>
       </c>
       <c r="C3">
-        <v>8.06</v>
+        <v>0.28</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -2487,10 +2487,10 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>7.11</v>
+        <v>0.24</v>
       </c>
       <c r="C4">
-        <v>8.710000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
@@ -2504,10 +2504,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>6.49</v>
+        <v>0.22</v>
       </c>
       <c r="C5">
-        <v>7.43</v>
+        <v>0.26</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
@@ -2521,10 +2521,10 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>10.19</v>
+        <v>0.36</v>
       </c>
       <c r="C6">
-        <v>11.46</v>
+        <v>0.41</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
@@ -2538,10 +2538,10 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>19.23</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>21.98</v>
+        <v>0.82</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -2555,10 +2555,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>17.81</v>
+        <v>0.71</v>
       </c>
       <c r="C8">
-        <v>18.91</v>
+        <v>0.77</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
@@ -2572,10 +2572,10 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>25.1</v>
+        <v>0.88</v>
       </c>
       <c r="C9">
-        <v>26.63</v>
+        <v>0.95</v>
       </c>
       <c r="D9" t="s">
         <v>71</v>
